--- a/_db/IMSA_DB_HOJA1.xlsx
+++ b/_db/IMSA_DB_HOJA1.xlsx
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="B912" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -9538,7 +9538,7 @@
         </is>
       </c>
       <c r="B913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914">
@@ -9548,7 +9548,7 @@
         </is>
       </c>
       <c r="B914" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915">

--- a/_db/IMSA_DB_HOJA1.xlsx
+++ b/_db/IMSA_DB_HOJA1.xlsx
@@ -11198,7 +11198,7 @@
         </is>
       </c>
       <c r="B1079" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080">
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="B1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082">
